--- a/Plan de Pruebas-NexumAnteproyecto.xlsx
+++ b/Plan de Pruebas-NexumAnteproyecto.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="DBpK6VZGLNT9CTXK3VsQ7Lz2Bk1pRkAVL7PyVblnH6E="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="kzK2uwcqCFzqBOeBxWE5BgMfOhSOKe7yn20kD6FBMac="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Bloque</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>TC 01. Conecta con la base de datos</t>
+  </si>
+  <si>
+    <t>El user introducido previamente en la BBDD es válido en nuestro proyecto</t>
+  </si>
+  <si>
+    <t>Logea correctamente</t>
+  </si>
+  <si>
+    <t>Apto</t>
   </si>
   <si>
     <t>Funcionales</t>
@@ -69,7 +78,16 @@
     <t>Aparece mensaje por ventana "El usario introducido no existe". ¿ Qué hacemos ?</t>
   </si>
   <si>
-    <t>TC 05. No se rellenan los campos del login y pass</t>
+    <t>TC 05. Registro de un usuario</t>
+  </si>
+  <si>
+    <t>Registramos un nuevo usuario y se guarda en BBDD</t>
+  </si>
+  <si>
+    <t>Aparece mensaje por ventana "Usuario registrado"</t>
+  </si>
+  <si>
+    <t>TC 06. No se rellenan los campos del login y pass</t>
   </si>
   <si>
     <t>Login en blanco, pass en blanco</t>
@@ -81,7 +99,7 @@
     <t>Otras</t>
   </si>
   <si>
-    <t>TC 06. Se abre el home</t>
+    <t>TC 07. Se abre el home</t>
   </si>
   <si>
     <t>Pulsando el botón "cerrar sesión"</t>
@@ -90,19 +108,19 @@
     <t>Volver al formulario de login desde el formulario de éxito</t>
   </si>
   <si>
-    <t>TC 07. Salir de la aplicación</t>
+    <t>TC 08. Cerrar sesión desde la home</t>
   </si>
   <si>
-    <t>Pulsando el botón para "cerrar la aplicación"</t>
+    <t>Pulsando el botón para "cerrar sesión"</t>
   </si>
   <si>
-    <t>Se cierra la aplicación</t>
+    <t>Se cierra la sesión y redirige al login</t>
   </si>
   <si>
     <t>Seguridad</t>
   </si>
   <si>
-    <t>TC 08. El usuario introduce tres veces mal la contraseña</t>
+    <t>TC 09. El usuario introduce tres veces mal la contraseña</t>
   </si>
   <si>
     <t>Si el usuario introduce tres veces mal la contraseña</t>
@@ -134,7 +152,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +169,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6AA84F"/>
+        <bgColor rgb="FF6AA84F"/>
       </patternFill>
     </fill>
   </fills>
@@ -190,7 +214,7 @@
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -463,9 +487,15 @@
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="5"/>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -489,21 +519,23 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3">
         <v>1.0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -531,15 +563,17 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -567,15 +601,17 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -599,19 +635,19 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="3">
-        <v>4.0</v>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
+      <c r="D6" s="4" t="s">
+        <v>21</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
+      <c r="F6" s="5" t="s">
+        <v>9</v>
       </c>
-      <c r="F6" s="5"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -634,22 +670,22 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="B7" s="3">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -672,20 +708,24 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="B8" s="3">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -708,22 +748,22 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A9" s="3"/>
       <c r="B9" s="3">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="D9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -746,12 +786,24 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -28521,6 +28573,34 @@
       <c r="Y1001" s="2"/>
       <c r="Z1001" s="2"/>
     </row>
+    <row r="1002" ht="14.25" customHeight="1">
+      <c r="A1002" s="2"/>
+      <c r="B1002" s="2"/>
+      <c r="C1002" s="2"/>
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="2"/>
+      <c r="F1002" s="2"/>
+      <c r="G1002" s="2"/>
+      <c r="H1002" s="2"/>
+      <c r="I1002" s="2"/>
+      <c r="J1002" s="2"/>
+      <c r="K1002" s="2"/>
+      <c r="L1002" s="2"/>
+      <c r="M1002" s="2"/>
+      <c r="N1002" s="2"/>
+      <c r="O1002" s="2"/>
+      <c r="P1002" s="2"/>
+      <c r="Q1002" s="2"/>
+      <c r="R1002" s="2"/>
+      <c r="S1002" s="2"/>
+      <c r="T1002" s="2"/>
+      <c r="U1002" s="2"/>
+      <c r="V1002" s="2"/>
+      <c r="W1002" s="2"/>
+      <c r="X1002" s="2"/>
+      <c r="Y1002" s="2"/>
+      <c r="Z1002" s="2"/>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
